--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>127.134477</v>
+        <v>12.96699333333333</v>
       </c>
       <c r="H2">
-        <v>381.403431</v>
+        <v>38.90098</v>
       </c>
       <c r="I2">
-        <v>0.7397224744116365</v>
+        <v>0.248939824633031</v>
       </c>
       <c r="J2">
-        <v>0.7397224744116364</v>
+        <v>0.248939824633031</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.03403033333334</v>
+        <v>0.3667156666666667</v>
       </c>
       <c r="N2">
-        <v>63.10209100000001</v>
+        <v>1.100147</v>
       </c>
       <c r="O2">
-        <v>0.1030737782409588</v>
+        <v>0.001893484040582144</v>
       </c>
       <c r="P2">
-        <v>0.1030737782409588</v>
+        <v>0.001893484040582144</v>
       </c>
       <c r="Q2">
-        <v>2674.15044563047</v>
+        <v>4.755199604895555</v>
       </c>
       <c r="R2">
-        <v>24067.35401067423</v>
+        <v>42.79679644405999</v>
       </c>
       <c r="S2">
-        <v>0.07624599028735836</v>
+        <v>0.0004713635850079618</v>
       </c>
       <c r="T2">
-        <v>0.07624599028735835</v>
+        <v>0.0004713635850079618</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>127.134477</v>
+        <v>12.96699333333333</v>
       </c>
       <c r="H3">
-        <v>381.403431</v>
+        <v>38.90098</v>
       </c>
       <c r="I3">
-        <v>0.7397224744116365</v>
+        <v>0.248939824633031</v>
       </c>
       <c r="J3">
-        <v>0.7397224744116364</v>
+        <v>0.248939824633031</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>1.853217</v>
       </c>
       <c r="N3">
-        <v>5.559651</v>
+        <v>5.559651000000001</v>
       </c>
       <c r="O3">
-        <v>0.009081382648177615</v>
+        <v>0.009568821657202681</v>
       </c>
       <c r="P3">
-        <v>0.009081382648177615</v>
+        <v>0.009568821657202679</v>
       </c>
       <c r="Q3">
-        <v>235.607774062509</v>
+        <v>24.03065248422</v>
       </c>
       <c r="R3">
-        <v>2120.469966562581</v>
+        <v>216.27587235798</v>
       </c>
       <c r="S3">
-        <v>0.006717702843588845</v>
+        <v>0.002382060785288784</v>
       </c>
       <c r="T3">
-        <v>0.006717702843588844</v>
+        <v>0.002382060785288784</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>127.134477</v>
+        <v>12.96699333333333</v>
       </c>
       <c r="H4">
-        <v>381.403431</v>
+        <v>38.90098</v>
       </c>
       <c r="I4">
-        <v>0.7397224744116365</v>
+        <v>0.248939824633031</v>
       </c>
       <c r="J4">
-        <v>0.7397224744116364</v>
+        <v>0.248939824633031</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.589601</v>
+        <v>1.599526666666667</v>
       </c>
       <c r="N4">
-        <v>4.768803</v>
+        <v>4.79858</v>
       </c>
       <c r="O4">
-        <v>0.007789576147275675</v>
+        <v>0.008258927804608534</v>
       </c>
       <c r="P4">
-        <v>0.007789576147275675</v>
+        <v>0.008258927804608534</v>
       </c>
       <c r="Q4">
-        <v>202.093091773677</v>
+        <v>20.74105162315556</v>
       </c>
       <c r="R4">
-        <v>1818.837825963093</v>
+        <v>186.6694646084</v>
       </c>
       <c r="S4">
-        <v>0.005762124542280625</v>
+        <v>0.002055976039336112</v>
       </c>
       <c r="T4">
-        <v>0.005762124542280624</v>
+        <v>0.002055976039336112</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>127.134477</v>
+        <v>12.96699333333333</v>
       </c>
       <c r="H5">
-        <v>381.403431</v>
+        <v>38.90098</v>
       </c>
       <c r="I5">
-        <v>0.7397224744116365</v>
+        <v>0.248939824633031</v>
       </c>
       <c r="J5">
-        <v>0.7397224744116364</v>
+        <v>0.248939824633031</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>179.590866</v>
+        <v>189.8529766666667</v>
       </c>
       <c r="N5">
-        <v>538.772598</v>
+        <v>569.55893</v>
       </c>
       <c r="O5">
-        <v>0.8800552629635878</v>
+        <v>0.9802787664976067</v>
       </c>
       <c r="P5">
-        <v>0.8800552629635878</v>
+        <v>0.9802787664976066</v>
       </c>
       <c r="Q5">
-        <v>22832.19082288708</v>
+        <v>2461.822282750155</v>
       </c>
       <c r="R5">
-        <v>205489.7174059837</v>
+        <v>22156.4005447514</v>
       </c>
       <c r="S5">
-        <v>0.6509966567384087</v>
+        <v>0.2440304242233981</v>
       </c>
       <c r="T5">
-        <v>0.6509966567384086</v>
+        <v>0.2440304242233981</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>89.68313499999999</v>
       </c>
       <c r="I6">
-        <v>0.1739382112039596</v>
+        <v>0.5739110916856193</v>
       </c>
       <c r="J6">
-        <v>0.1739382112039596</v>
+        <v>0.5739110916856194</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.03403033333334</v>
+        <v>0.3667156666666667</v>
       </c>
       <c r="N6">
-        <v>63.10209100000001</v>
+        <v>1.100147</v>
       </c>
       <c r="O6">
-        <v>0.1030737782409588</v>
+        <v>0.001893484040582144</v>
       </c>
       <c r="P6">
-        <v>0.1030737782409588</v>
+        <v>0.001893484040582144</v>
       </c>
       <c r="Q6">
-        <v>628.7992606594762</v>
+        <v>10.96273688009389</v>
       </c>
       <c r="R6">
-        <v>5659.193345935285</v>
+        <v>98.664631920845</v>
       </c>
       <c r="S6">
-        <v>0.01792846860926599</v>
+        <v>0.001086691492819795</v>
       </c>
       <c r="T6">
-        <v>0.01792846860926599</v>
+        <v>0.001086691492819796</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>89.68313499999999</v>
       </c>
       <c r="I7">
-        <v>0.1739382112039596</v>
+        <v>0.5739110916856193</v>
       </c>
       <c r="J7">
-        <v>0.1739382112039596</v>
+        <v>0.5739110916856194</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>1.853217</v>
       </c>
       <c r="N7">
-        <v>5.559651</v>
+        <v>5.559651000000001</v>
       </c>
       <c r="O7">
-        <v>0.009081382648177615</v>
+        <v>0.009568821657202681</v>
       </c>
       <c r="P7">
-        <v>0.009081382648177615</v>
+        <v>0.009568821657202679</v>
       </c>
       <c r="Q7">
-        <v>55.40077013176499</v>
+        <v>55.400770131765</v>
       </c>
       <c r="R7">
-        <v>498.6069311858849</v>
+        <v>498.606931185885</v>
       </c>
       <c r="S7">
-        <v>0.001579599453082692</v>
+        <v>0.005491652883430187</v>
       </c>
       <c r="T7">
-        <v>0.001579599453082692</v>
+        <v>0.005491652883430187</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>89.68313499999999</v>
       </c>
       <c r="I8">
-        <v>0.1739382112039596</v>
+        <v>0.5739110916856193</v>
       </c>
       <c r="J8">
-        <v>0.1739382112039596</v>
+        <v>0.5739110916856194</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.589601</v>
+        <v>1.599526666666667</v>
       </c>
       <c r="N8">
-        <v>4.768803</v>
+        <v>4.79858</v>
       </c>
       <c r="O8">
-        <v>0.007789576147275675</v>
+        <v>0.008258927804608534</v>
       </c>
       <c r="P8">
-        <v>0.007789576147275675</v>
+        <v>0.008258927804608534</v>
       </c>
       <c r="Q8">
-        <v>47.520133693045</v>
+        <v>47.81685532758889</v>
       </c>
       <c r="R8">
-        <v>427.681203237405</v>
+        <v>430.3516979483</v>
       </c>
       <c r="S8">
-        <v>0.001354904941094162</v>
+        <v>0.004739890272495598</v>
       </c>
       <c r="T8">
-        <v>0.001354904941094162</v>
+        <v>0.004739890272495599</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>89.68313499999999</v>
       </c>
       <c r="I9">
-        <v>0.1739382112039596</v>
+        <v>0.5739110916856193</v>
       </c>
       <c r="J9">
-        <v>0.1739382112039596</v>
+        <v>0.5739110916856194</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>179.590866</v>
+        <v>189.8529766666667</v>
       </c>
       <c r="N9">
-        <v>538.772598</v>
+        <v>569.55893</v>
       </c>
       <c r="O9">
-        <v>0.8800552629635878</v>
+        <v>0.9802787664976067</v>
       </c>
       <c r="P9">
-        <v>0.8800552629635878</v>
+        <v>0.9802787664976066</v>
       </c>
       <c r="Q9">
-        <v>5368.75729341497</v>
+        <v>5675.536712182839</v>
       </c>
       <c r="R9">
-        <v>48318.81564073473</v>
+        <v>51079.83040964555</v>
       </c>
       <c r="S9">
-        <v>0.1530752382005167</v>
+        <v>0.5625928570368737</v>
       </c>
       <c r="T9">
-        <v>0.1530752382005167</v>
+        <v>0.5625928570368738</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.127415333333333</v>
+        <v>7.679779666666666</v>
       </c>
       <c r="H10">
-        <v>27.382246</v>
+        <v>23.039339</v>
       </c>
       <c r="I10">
-        <v>0.05310718551472112</v>
+        <v>0.1474361059880998</v>
       </c>
       <c r="J10">
-        <v>0.05310718551472112</v>
+        <v>0.1474361059880998</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.03403033333334</v>
+        <v>0.3667156666666667</v>
       </c>
       <c r="N10">
-        <v>63.10209100000001</v>
+        <v>1.100147</v>
       </c>
       <c r="O10">
-        <v>0.1030737782409588</v>
+        <v>0.001893484040582144</v>
       </c>
       <c r="P10">
-        <v>0.1030737782409588</v>
+        <v>0.001893484040582144</v>
       </c>
       <c r="Q10">
-        <v>191.9863309862652</v>
+        <v>2.816295520314777</v>
       </c>
       <c r="R10">
-        <v>1727.876978876386</v>
+        <v>25.346659682833</v>
       </c>
       <c r="S10">
-        <v>0.005473958262745826</v>
+        <v>0.0002791679136940444</v>
       </c>
       <c r="T10">
-        <v>0.005473958262745826</v>
+        <v>0.0002791679136940444</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.127415333333333</v>
+        <v>7.679779666666666</v>
       </c>
       <c r="H11">
-        <v>27.382246</v>
+        <v>23.039339</v>
       </c>
       <c r="I11">
-        <v>0.05310718551472112</v>
+        <v>0.1474361059880998</v>
       </c>
       <c r="J11">
-        <v>0.05310718551472112</v>
+        <v>0.1474361059880998</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>1.853217</v>
       </c>
       <c r="N11">
-        <v>5.559651</v>
+        <v>5.559651000000001</v>
       </c>
       <c r="O11">
-        <v>0.009081382648177615</v>
+        <v>0.009568821657202681</v>
       </c>
       <c r="P11">
-        <v>0.009081382648177615</v>
+        <v>0.009568821657202679</v>
       </c>
       <c r="Q11">
-        <v>16.915081261794</v>
+        <v>14.232298234521</v>
       </c>
       <c r="R11">
-        <v>152.235731356146</v>
+        <v>128.090684110689</v>
       </c>
       <c r="S11">
-        <v>0.000482286673026938</v>
+        <v>0.001410789804032559</v>
       </c>
       <c r="T11">
-        <v>0.000482286673026938</v>
+        <v>0.001410789804032559</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.127415333333333</v>
+        <v>7.679779666666666</v>
       </c>
       <c r="H12">
-        <v>27.382246</v>
+        <v>23.039339</v>
       </c>
       <c r="I12">
-        <v>0.05310718551472112</v>
+        <v>0.1474361059880998</v>
       </c>
       <c r="J12">
-        <v>0.05310718551472112</v>
+        <v>0.1474361059880998</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.589601</v>
+        <v>1.599526666666667</v>
       </c>
       <c r="N12">
-        <v>4.768803</v>
+        <v>4.79858</v>
       </c>
       <c r="O12">
-        <v>0.007789576147275675</v>
+        <v>0.008258927804608534</v>
       </c>
       <c r="P12">
-        <v>0.007789576147275675</v>
+        <v>0.008258927804608534</v>
       </c>
       <c r="Q12">
-        <v>14.508948541282</v>
+        <v>12.28401237095778</v>
       </c>
       <c r="R12">
-        <v>130.580536871538</v>
+        <v>110.55611133862</v>
       </c>
       <c r="S12">
-        <v>0.0004136824655344159</v>
+        <v>0.001217664155148328</v>
       </c>
       <c r="T12">
-        <v>0.0004136824655344159</v>
+        <v>0.001217664155148328</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.127415333333333</v>
+        <v>7.679779666666666</v>
       </c>
       <c r="H13">
-        <v>27.382246</v>
+        <v>23.039339</v>
       </c>
       <c r="I13">
-        <v>0.05310718551472112</v>
+        <v>0.1474361059880998</v>
       </c>
       <c r="J13">
-        <v>0.05310718551472112</v>
+        <v>0.1474361059880998</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>179.590866</v>
+        <v>189.8529766666667</v>
       </c>
       <c r="N13">
-        <v>538.772598</v>
+        <v>569.55893</v>
       </c>
       <c r="O13">
-        <v>0.8800552629635878</v>
+        <v>0.9802787664976067</v>
       </c>
       <c r="P13">
-        <v>0.8800552629635878</v>
+        <v>0.9802787664976066</v>
       </c>
       <c r="Q13">
-        <v>1639.200424055012</v>
+        <v>1458.029029860808</v>
       </c>
       <c r="R13">
-        <v>14752.80381649511</v>
+        <v>13122.26126874727</v>
       </c>
       <c r="S13">
-        <v>0.04673725811341394</v>
+        <v>0.1445284841152249</v>
       </c>
       <c r="T13">
-        <v>0.04673725811341394</v>
+        <v>0.1445284841152249</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.711532999999999</v>
+        <v>1.547715333333333</v>
       </c>
       <c r="H14">
-        <v>17.134599</v>
+        <v>4.643146</v>
       </c>
       <c r="I14">
-        <v>0.03323212886968274</v>
+        <v>0.02971297769324987</v>
       </c>
       <c r="J14">
-        <v>0.03323212886968274</v>
+        <v>0.02971297769324987</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.03403033333334</v>
+        <v>0.3667156666666667</v>
       </c>
       <c r="N14">
-        <v>63.10209100000001</v>
+        <v>1.100147</v>
       </c>
       <c r="O14">
-        <v>0.1030737782409588</v>
+        <v>0.001893484040582144</v>
       </c>
       <c r="P14">
-        <v>0.1030737782409588</v>
+        <v>0.001893484040582144</v>
       </c>
       <c r="Q14">
-        <v>120.1365583718343</v>
+        <v>0.5675714602735555</v>
       </c>
       <c r="R14">
-        <v>1081.229025346509</v>
+        <v>5.108143142462</v>
       </c>
       <c r="S14">
-        <v>0.003425361081588645</v>
+        <v>5.626104906034186E-05</v>
       </c>
       <c r="T14">
-        <v>0.003425361081588645</v>
+        <v>5.626104906034187E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.711532999999999</v>
+        <v>1.547715333333333</v>
       </c>
       <c r="H15">
-        <v>17.134599</v>
+        <v>4.643146</v>
       </c>
       <c r="I15">
-        <v>0.03323212886968274</v>
+        <v>0.02971297769324987</v>
       </c>
       <c r="J15">
-        <v>0.03323212886968274</v>
+        <v>0.02971297769324987</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>1.853217</v>
       </c>
       <c r="N15">
-        <v>5.559651</v>
+        <v>5.559651000000001</v>
       </c>
       <c r="O15">
-        <v>0.009081382648177615</v>
+        <v>0.009568821657202681</v>
       </c>
       <c r="P15">
-        <v>0.009081382648177615</v>
+        <v>0.009568821657202679</v>
       </c>
       <c r="Q15">
-        <v>10.584710051661</v>
+        <v>2.868252366894</v>
       </c>
       <c r="R15">
-        <v>95.26239046494898</v>
+        <v>25.814271302046</v>
       </c>
       <c r="S15">
-        <v>0.0003017936784791392</v>
+        <v>0.0002843181844511495</v>
       </c>
       <c r="T15">
-        <v>0.0003017936784791392</v>
+        <v>0.0002843181844511495</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.711532999999999</v>
+        <v>1.547715333333333</v>
       </c>
       <c r="H16">
-        <v>17.134599</v>
+        <v>4.643146</v>
       </c>
       <c r="I16">
-        <v>0.03323212886968274</v>
+        <v>0.02971297769324987</v>
       </c>
       <c r="J16">
-        <v>0.03323212886968274</v>
+        <v>0.02971297769324987</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.589601</v>
+        <v>1.599526666666667</v>
       </c>
       <c r="N16">
-        <v>4.768803</v>
+        <v>4.79858</v>
       </c>
       <c r="O16">
-        <v>0.007789576147275675</v>
+        <v>0.008258927804608534</v>
       </c>
       <c r="P16">
-        <v>0.007789576147275675</v>
+        <v>0.008258927804608534</v>
       </c>
       <c r="Q16">
-        <v>9.079058568332998</v>
+        <v>2.475611948075556</v>
       </c>
       <c r="R16">
-        <v>81.711527114997</v>
+        <v>22.28050753268</v>
       </c>
       <c r="S16">
-        <v>0.000258864198366472</v>
+        <v>0.0002453973376284945</v>
       </c>
       <c r="T16">
-        <v>0.000258864198366472</v>
+        <v>0.0002453973376284945</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.711532999999999</v>
+        <v>1.547715333333333</v>
       </c>
       <c r="H17">
-        <v>17.134599</v>
+        <v>4.643146</v>
       </c>
       <c r="I17">
-        <v>0.03323212886968274</v>
+        <v>0.02971297769324987</v>
       </c>
       <c r="J17">
-        <v>0.03323212886968274</v>
+        <v>0.02971297769324987</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>179.590866</v>
+        <v>189.8529766666667</v>
       </c>
       <c r="N17">
-        <v>538.772598</v>
+        <v>569.55893</v>
       </c>
       <c r="O17">
-        <v>0.8800552629635878</v>
+        <v>0.9802787664976067</v>
       </c>
       <c r="P17">
-        <v>0.8800552629635878</v>
+        <v>0.9802787664976066</v>
       </c>
       <c r="Q17">
-        <v>1025.739157657578</v>
+        <v>293.8383630659756</v>
       </c>
       <c r="R17">
-        <v>9231.652418918202</v>
+        <v>2644.54526759378</v>
       </c>
       <c r="S17">
-        <v>0.02924610991124849</v>
+        <v>0.02912700112210988</v>
       </c>
       <c r="T17">
-        <v>0.02924610991124849</v>
+        <v>0.02912700112210988</v>
       </c>
     </row>
   </sheetData>
